--- a/excele_reporter/months/Начало месяца E+.xlsx
+++ b/excele_reporter/months/Начало месяца E+.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Office SS301..CE301 Tractor" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name=" ОАО &quot;ММЗ&quot; №1..ГПК &quot;Тормоз-1&quot;" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name=" ОАО &quot;ММЗ&quot; №1.. ОАО &quot;ММЗ&quot; №1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -8156,4 +8157,130 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Tarif</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Датчик  ОАО "ММЗ" №1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>